--- a/database/sidis/expdata/3716.xlsx
+++ b/database/sidis/expdata/3716.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95573A6B-2EA8-4E98-9B79-6D127AAB8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED8CA8-FF7B-0D4D-9017-95C20EAF3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="1530" windowWidth="13170" windowHeight="11520" xr2:uid="{EDD2FC8F-5D1E-904D-8911-663A63AE8CEE}"/>
+    <workbookView xWindow="15520" yWindow="1540" windowWidth="13180" windowHeight="11520" xr2:uid="{EDD2FC8F-5D1E-904D-8911-663A63AE8CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B4B4B-1566-944E-AFD9-D7206BCA978D}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +534,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.91</v>
       </c>
@@ -591,8 +597,11 @@
       <c r="S2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.22</v>
       </c>
@@ -651,8 +660,11 @@
       <c r="S3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.18</v>
       </c>
@@ -711,8 +723,11 @@
       <c r="S4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.4</v>
       </c>
@@ -770,8 +785,11 @@
       <c r="S5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.41</v>
       </c>
@@ -830,8 +848,11 @@
       <c r="S6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.55</v>
       </c>
@@ -890,8 +911,11 @@
       <c r="S7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.8</v>
       </c>
@@ -950,8 +974,11 @@
       <c r="S8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.79</v>
       </c>
@@ -1009,8 +1036,11 @@
       <c r="S9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4.26</v>
       </c>
@@ -1069,8 +1099,11 @@
       <c r="S10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4.3099999999999996</v>
       </c>
@@ -1129,8 +1162,11 @@
       <c r="S11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.59</v>
       </c>
@@ -1189,8 +1225,11 @@
       <c r="S12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.78</v>
       </c>
@@ -1248,8 +1287,11 @@
       <c r="S13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4.25</v>
       </c>
@@ -1308,8 +1350,11 @@
       <c r="S14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4.13</v>
       </c>
@@ -1368,8 +1413,11 @@
       <c r="S15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4.25</v>
       </c>
@@ -1428,8 +1476,11 @@
       <c r="S16">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.6">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4.67</v>
       </c>
@@ -1486,6 +1537,9 @@
       </c>
       <c r="S17">
         <v>0.6</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
